--- a/hardware/PROD/MICB_报价.xlsx
+++ b/hardware/PROD/MICB_报价.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29670" windowHeight="11940"/>
+    <workbookView windowWidth="21345" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="MICB" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <t>贴片电阻</t>
   </si>
   <si>
-    <t>R2, R3, R4, R53, R59, R67, R70, R81, R82, R83</t>
+    <t>R2, R3, R4, R53, R59, R67, R70, R81, R82, R83, R93, R94, R95, R96</t>
   </si>
   <si>
     <t>R 0603_L</t>
@@ -722,30 +722,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -758,15 +743,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,40 +810,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -825,24 +834,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,15 +860,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,19 +895,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +937,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,49 +967,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,13 +997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,7 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,25 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,25 +1057,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,29 +1104,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,17 +1134,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,6 +1192,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1209,10 +1209,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1221,133 +1221,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1442,7 +1442,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1721,13 +1721,15 @@
   <sheetPr/>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="17.375" customWidth="1"/>
+    <col min="1" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="69.25" customWidth="1"/>
+    <col min="4" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -2858,14 +2860,13 @@
         <v>127</v>
       </c>
       <c r="E44" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <f>E44*3</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3894,7 +3895,7 @@
     <row r="86" spans="8:8">
       <c r="H86">
         <f>SUM(H2:H85)</f>
-        <v>568.33</v>
+        <v>569.33</v>
       </c>
     </row>
   </sheetData>
